--- a/Listas/Lista01-resolucao.xlsx
+++ b/Listas/Lista01-resolucao.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\experimentacao-agricola-unesp-fcav\Listas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\experimentacao-agricola-unesp-fcav\Listas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>X</t>
   </si>
@@ -51,9 +51,6 @@
     <t>g)</t>
   </si>
   <si>
-    <t>X-m</t>
-  </si>
-  <si>
     <t>(X-m)²</t>
   </si>
   <si>
@@ -85,6 +82,15 @@
   </si>
   <si>
     <t>Tabela de Total</t>
+  </si>
+  <si>
+    <t>X²</t>
+  </si>
+  <si>
+    <t>Coluna C</t>
+  </si>
+  <si>
+    <t>item b) (X-m)</t>
   </si>
 </sst>
 </file>
@@ -438,461 +444,588 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="6" customWidth="1"/>
+    <col min="3" max="4" width="11.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>110.6</v>
       </c>
       <c r="B2" s="5">
-        <f>A2-$F$2</f>
+        <f>A2^2</f>
+        <v>12232.359999999999</v>
+      </c>
+      <c r="C2" s="5">
+        <f>A2-$G$2</f>
         <v>-27.400000000000034</v>
       </c>
-      <c r="C2" s="5">
-        <f>B2*B2</f>
+      <c r="D2" s="5">
+        <f>C2*C2</f>
         <v>750.76000000000192</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="G2" s="3">
         <f>AVERAGE(A2:A31)</f>
         <v>138.00000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>116.7</v>
       </c>
       <c r="B3" s="6">
-        <f t="shared" ref="B3:B31" si="0">A3-$F$2</f>
+        <f t="shared" ref="B3:B31" si="0">A3^2</f>
+        <v>13618.890000000001</v>
+      </c>
+      <c r="C3" s="6">
+        <f t="shared" ref="C3:C31" si="1">A3-$G$2</f>
         <v>-21.300000000000026</v>
       </c>
-      <c r="C3" s="6">
-        <f t="shared" ref="C3:C31" si="1">B3*B3</f>
+      <c r="D3" s="6">
+        <f t="shared" ref="D3:D31" si="2">C3*C3</f>
         <v>453.69000000000108</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="F3">
-        <f>_xlfn.STDEV.S(A2:A31)</f>
-        <v>14.766154216478306</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>140.30000000000001</v>
       </c>
       <c r="B4" s="6">
         <f t="shared" si="0"/>
+        <v>19684.090000000004</v>
+      </c>
+      <c r="C4" s="6">
+        <f t="shared" si="1"/>
         <v>2.2999999999999829</v>
       </c>
-      <c r="C4" s="6">
-        <f t="shared" si="1"/>
+      <c r="D4" s="6">
+        <f t="shared" si="2"/>
         <v>5.2899999999999219</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>3</v>
       </c>
-      <c r="F4">
-        <f>SUM(C2:C31)/(30-1)</f>
+      <c r="G4" s="3">
+        <f>SUM(D2:D31)/(30-1)</f>
         <v>218.0393103448277</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>139.1</v>
       </c>
       <c r="B5" s="6">
         <f t="shared" si="0"/>
+        <v>19348.809999999998</v>
+      </c>
+      <c r="C5" s="6">
+        <f t="shared" si="1"/>
         <v>1.0999999999999659</v>
       </c>
-      <c r="C5" s="6">
-        <f t="shared" si="1"/>
+      <c r="D5" s="6">
+        <f t="shared" si="2"/>
         <v>1.2099999999999249</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>4</v>
       </c>
-      <c r="F5">
-        <f>(SUMSQ(A2:A31)-SUM(A2:A31)^2/30)/(30-1)</f>
+      <c r="G5" s="3">
+        <f>(SUM(B2:B31)-SUM(A2:A31)^2/30)/(30-1)</f>
         <v>218.03931034482005</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>128.69999999999999</v>
       </c>
       <c r="B6" s="6">
         <f t="shared" si="0"/>
+        <v>16563.689999999999</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" si="1"/>
         <v>-9.3000000000000398</v>
       </c>
-      <c r="C6" s="6">
-        <f t="shared" si="1"/>
+      <c r="D6" s="6">
+        <f t="shared" si="2"/>
         <v>86.490000000000734</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>5</v>
       </c>
-      <c r="F6">
-        <f>F5^(0.5)</f>
+      <c r="G6" s="3">
+        <f>G5^(0.5)</f>
         <v>14.766154216478306</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>119.5</v>
       </c>
       <c r="B7" s="6">
         <f t="shared" si="0"/>
+        <v>14280.25</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" si="1"/>
         <v>-18.500000000000028</v>
       </c>
-      <c r="C7" s="6">
-        <f t="shared" si="1"/>
+      <c r="D7" s="6">
+        <f t="shared" si="2"/>
         <v>342.25000000000102</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>6</v>
       </c>
-      <c r="F7">
-        <f>F6/SQRT(30)</f>
+      <c r="G7" s="3">
+        <f>G6/SQRT(30)</f>
         <v>2.6959185839883966</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>128.4</v>
       </c>
       <c r="B8" s="6">
         <f t="shared" si="0"/>
+        <v>16486.560000000001</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" si="1"/>
         <v>-9.6000000000000227</v>
       </c>
-      <c r="C8" s="6">
-        <f t="shared" si="1"/>
+      <c r="D8" s="6">
+        <f t="shared" si="2"/>
         <v>92.160000000000437</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>7</v>
       </c>
-      <c r="F8">
-        <f>100*F6/F2</f>
+      <c r="G8" s="3">
+        <f>100*G6/G2</f>
         <v>10.700111751071233</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>150</v>
       </c>
       <c r="B9" s="6">
         <f t="shared" si="0"/>
+        <v>22500</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="shared" si="1"/>
         <v>11.999999999999972</v>
       </c>
-      <c r="C9" s="6">
-        <f t="shared" si="1"/>
+      <c r="D9" s="6">
+        <f t="shared" si="2"/>
         <v>143.99999999999932</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>153.80000000000001</v>
       </c>
       <c r="B10" s="6">
         <f t="shared" si="0"/>
+        <v>23654.440000000002</v>
+      </c>
+      <c r="C10" s="6">
+        <f t="shared" si="1"/>
         <v>15.799999999999983</v>
       </c>
-      <c r="C10" s="6">
-        <f t="shared" si="1"/>
+      <c r="D10" s="6">
+        <f t="shared" si="2"/>
         <v>249.63999999999947</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>140.19999999999999</v>
       </c>
       <c r="B11" s="6">
         <f t="shared" si="0"/>
+        <v>19656.039999999997</v>
+      </c>
+      <c r="C11" s="6">
+        <f t="shared" si="1"/>
         <v>2.1999999999999602</v>
       </c>
-      <c r="C11" s="6">
-        <f t="shared" si="1"/>
+      <c r="D11" s="6">
+        <f t="shared" si="2"/>
         <v>4.8399999999998249</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>120.1</v>
       </c>
       <c r="B12" s="6">
         <f t="shared" si="0"/>
+        <v>14424.009999999998</v>
+      </c>
+      <c r="C12" s="6">
+        <f t="shared" si="1"/>
         <v>-17.900000000000034</v>
       </c>
-      <c r="C12" s="6">
-        <f t="shared" si="1"/>
+      <c r="D12" s="6">
+        <f t="shared" si="2"/>
         <v>320.41000000000122</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>131.5</v>
       </c>
       <c r="B13" s="6">
         <f t="shared" si="0"/>
+        <v>17292.25</v>
+      </c>
+      <c r="C13" s="6">
+        <f t="shared" si="1"/>
         <v>-6.5000000000000284</v>
       </c>
-      <c r="C13" s="6">
-        <f t="shared" si="1"/>
+      <c r="D13" s="6">
+        <f t="shared" si="2"/>
         <v>42.250000000000369</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>150.9</v>
       </c>
       <c r="B14" s="6">
         <f t="shared" si="0"/>
+        <v>22770.81</v>
+      </c>
+      <c r="C14" s="6">
+        <f t="shared" si="1"/>
         <v>12.899999999999977</v>
       </c>
-      <c r="C14" s="6">
-        <f t="shared" si="1"/>
+      <c r="D14" s="6">
+        <f t="shared" si="2"/>
         <v>166.4099999999994</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>151.5</v>
       </c>
       <c r="B15" s="6">
         <f t="shared" si="0"/>
+        <v>22952.25</v>
+      </c>
+      <c r="C15" s="6">
+        <f t="shared" si="1"/>
         <v>13.499999999999972</v>
       </c>
-      <c r="C15" s="6">
-        <f t="shared" si="1"/>
+      <c r="D15" s="6">
+        <f t="shared" si="2"/>
         <v>182.24999999999923</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>130.30000000000001</v>
       </c>
       <c r="B16" s="6">
         <f t="shared" si="0"/>
+        <v>16978.090000000004</v>
+      </c>
+      <c r="C16" s="6">
+        <f t="shared" si="1"/>
         <v>-7.7000000000000171</v>
       </c>
-      <c r="C16" s="6">
-        <f t="shared" si="1"/>
+      <c r="D16" s="6">
+        <f t="shared" si="2"/>
         <v>59.290000000000262</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>105.3</v>
       </c>
       <c r="B17" s="6">
         <f t="shared" si="0"/>
+        <v>11088.09</v>
+      </c>
+      <c r="C17" s="6">
+        <f t="shared" si="1"/>
         <v>-32.700000000000031</v>
       </c>
-      <c r="C17" s="6">
-        <f t="shared" si="1"/>
+      <c r="D17" s="6">
+        <f t="shared" si="2"/>
         <v>1069.290000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>114.8</v>
       </c>
       <c r="B18" s="6">
         <f t="shared" si="0"/>
+        <v>13179.039999999999</v>
+      </c>
+      <c r="C18" s="6">
+        <f t="shared" si="1"/>
         <v>-23.200000000000031</v>
       </c>
-      <c r="C18" s="6">
-        <f t="shared" si="1"/>
+      <c r="D18" s="6">
+        <f t="shared" si="2"/>
         <v>538.24000000000149</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>144.69999999999999</v>
       </c>
       <c r="B19" s="6">
         <f t="shared" si="0"/>
+        <v>20938.089999999997</v>
+      </c>
+      <c r="C19" s="6">
+        <f t="shared" si="1"/>
         <v>6.6999999999999602</v>
       </c>
-      <c r="C19" s="6">
-        <f t="shared" si="1"/>
+      <c r="D19" s="6">
+        <f t="shared" si="2"/>
         <v>44.889999999999468</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>144.1</v>
       </c>
       <c r="B20" s="6">
         <f t="shared" si="0"/>
+        <v>20764.809999999998</v>
+      </c>
+      <c r="C20" s="6">
+        <f t="shared" si="1"/>
         <v>6.0999999999999659</v>
       </c>
-      <c r="C20" s="6">
-        <f t="shared" si="1"/>
+      <c r="D20" s="6">
+        <f t="shared" si="2"/>
         <v>37.209999999999582</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>138.30000000000001</v>
       </c>
       <c r="B21" s="6">
         <f t="shared" si="0"/>
+        <v>19126.890000000003</v>
+      </c>
+      <c r="C21" s="6">
+        <f t="shared" si="1"/>
         <v>0.29999999999998295</v>
       </c>
-      <c r="C21" s="6">
-        <f t="shared" si="1"/>
+      <c r="D21" s="6">
+        <f t="shared" si="2"/>
         <v>8.9999999999989769E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>130.4</v>
       </c>
       <c r="B22" s="6">
         <f t="shared" si="0"/>
+        <v>17004.16</v>
+      </c>
+      <c r="C22" s="6">
+        <f t="shared" si="1"/>
         <v>-7.6000000000000227</v>
       </c>
-      <c r="C22" s="6">
-        <f t="shared" si="1"/>
+      <c r="D22" s="6">
+        <f t="shared" si="2"/>
         <v>57.760000000000346</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>146.80000000000001</v>
       </c>
       <c r="B23" s="6">
         <f t="shared" si="0"/>
+        <v>21550.240000000002</v>
+      </c>
+      <c r="C23" s="6">
+        <f t="shared" si="1"/>
         <v>8.7999999999999829</v>
       </c>
-      <c r="C23" s="6">
-        <f t="shared" si="1"/>
+      <c r="D23" s="6">
+        <f t="shared" si="2"/>
         <v>77.439999999999699</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>153.9</v>
       </c>
       <c r="B24" s="6">
         <f t="shared" si="0"/>
+        <v>23685.210000000003</v>
+      </c>
+      <c r="C24" s="6">
+        <f t="shared" si="1"/>
         <v>15.899999999999977</v>
       </c>
-      <c r="C24" s="6">
-        <f t="shared" si="1"/>
+      <c r="D24" s="6">
+        <f t="shared" si="2"/>
         <v>252.80999999999926</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>154.6</v>
       </c>
       <c r="B25" s="6">
         <f t="shared" si="0"/>
+        <v>23901.16</v>
+      </c>
+      <c r="C25" s="6">
+        <f t="shared" si="1"/>
         <v>16.599999999999966</v>
       </c>
-      <c r="C25" s="6">
-        <f t="shared" si="1"/>
+      <c r="D25" s="6">
+        <f t="shared" si="2"/>
         <v>275.55999999999887</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>146</v>
       </c>
       <c r="B26" s="6">
         <f t="shared" si="0"/>
+        <v>21316</v>
+      </c>
+      <c r="C26" s="6">
+        <f t="shared" si="1"/>
         <v>7.9999999999999716</v>
       </c>
-      <c r="C26" s="6">
-        <f t="shared" si="1"/>
+      <c r="D26" s="6">
+        <f t="shared" si="2"/>
         <v>63.999999999999545</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>138.1</v>
       </c>
       <c r="B27" s="6">
         <f t="shared" si="0"/>
+        <v>19071.609999999997</v>
+      </c>
+      <c r="C27" s="6">
+        <f t="shared" si="1"/>
         <v>9.9999999999965894E-2</v>
       </c>
-      <c r="C27" s="6">
-        <f t="shared" si="1"/>
+      <c r="D27" s="6">
+        <f t="shared" si="2"/>
         <v>9.9999999999931793E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>145.4</v>
       </c>
       <c r="B28" s="6">
         <f t="shared" si="0"/>
+        <v>21141.16</v>
+      </c>
+      <c r="C28" s="6">
+        <f t="shared" si="1"/>
         <v>7.3999999999999773</v>
       </c>
-      <c r="C28" s="6">
-        <f t="shared" si="1"/>
+      <c r="D28" s="6">
+        <f t="shared" si="2"/>
         <v>54.759999999999664</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>156.9</v>
       </c>
       <c r="B29" s="6">
         <f t="shared" si="0"/>
+        <v>24617.61</v>
+      </c>
+      <c r="C29" s="6">
+        <f t="shared" si="1"/>
         <v>18.899999999999977</v>
       </c>
-      <c r="C29" s="6">
-        <f t="shared" si="1"/>
+      <c r="D29" s="6">
+        <f t="shared" si="2"/>
         <v>357.20999999999913</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>159.30000000000001</v>
       </c>
       <c r="B30" s="6">
         <f t="shared" si="0"/>
+        <v>25376.490000000005</v>
+      </c>
+      <c r="C30" s="6">
+        <f t="shared" si="1"/>
         <v>21.299999999999983</v>
       </c>
-      <c r="C30" s="6">
-        <f t="shared" si="1"/>
+      <c r="D30" s="6">
+        <f t="shared" si="2"/>
         <v>453.68999999999926</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>149.80000000000001</v>
       </c>
       <c r="B31" s="7">
         <f t="shared" si="0"/>
+        <v>22440.040000000005</v>
+      </c>
+      <c r="C31" s="7">
+        <f t="shared" si="1"/>
         <v>11.799999999999983</v>
       </c>
-      <c r="C31" s="7">
-        <f t="shared" si="1"/>
+      <c r="D31" s="7">
+        <f t="shared" si="2"/>
         <v>139.23999999999961</v>
       </c>
     </row>
@@ -913,32 +1046,32 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>150</v>
@@ -959,7 +1092,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>173</v>
@@ -980,7 +1113,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1">
         <f>SUM(B3:B4)</f>
@@ -1005,47 +1138,47 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3">
-        <f>B3/3</f>
+        <f t="shared" ref="B9:E10" si="0">B3/3</f>
         <v>50</v>
       </c>
       <c r="C9" s="3">
-        <f>C3/3</f>
+        <f t="shared" si="0"/>
         <v>31.666666666666668</v>
       </c>
       <c r="D9" s="3">
-        <f>D3/3</f>
+        <f t="shared" si="0"/>
         <v>59.666666666666664</v>
       </c>
       <c r="E9" s="3">
-        <f>E3/3</f>
+        <f t="shared" si="0"/>
         <v>74.333333333333329</v>
       </c>
       <c r="F9" s="3">
@@ -1055,22 +1188,22 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="3">
-        <f>B4/3</f>
+        <f t="shared" si="0"/>
         <v>57.666666666666664</v>
       </c>
       <c r="C10" s="3">
-        <f>C4/3</f>
+        <f t="shared" si="0"/>
         <v>47.666666666666664</v>
       </c>
       <c r="D10" s="3">
-        <f>D4/3</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E10" s="3">
-        <f>E4/3</f>
+        <f t="shared" si="0"/>
         <v>34.666666666666664</v>
       </c>
       <c r="F10" s="3">
@@ -1080,7 +1213,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="4">
         <f>B5/6</f>
